--- a/Тестовый расчет/toki.xlsx
+++ b/Тестовый расчет/toki.xlsx
@@ -184,18 +184,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M6" activeCellId="0" sqref="M6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O15" activeCellId="0" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="1" width="8.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="5" style="1" width="5.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="15" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="5.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -215,10 +215,6 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -226,33 +222,21 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="2" t="n">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="N2" s="2" t="n">
         <v>40</v>
       </c>
     </row>
@@ -273,31 +257,19 @@
         <v>2000</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1984</v>
+        <v>1900</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1876</v>
+        <v>1800</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1762</v>
+        <v>1700</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1639</v>
+        <v>1600</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -309,30 +281,18 @@
         <v>2000</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1984</v>
+        <v>2000</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1876</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1762</v>
+        <v>2000</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1639</v>
+        <v>2000</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N4" s="4" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -362,21 +322,9 @@
         <v>2000</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N5" s="4" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -398,21 +346,9 @@
         <v>2000</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1980</v>
+        <v>2000</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N6" s="4" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -442,22 +378,10 @@
         <v>2000</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1961</v>
+        <v>2000</v>
       </c>
       <c r="J7" s="4" t="n">
         <v>2000</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1996</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,22 +402,10 @@
         <v>2000</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1961</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2000</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>1996</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,31 +425,19 @@
         <v>2000</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>2000</v>
+        <v>1600</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,24 +463,12 @@
       <c r="J10" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="K10" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>2000</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>2000</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D2"/>
-    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E1:J1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
